--- a/ConvolutionalNeuralNetwork/Ship classifier results.xlsx
+++ b/ConvolutionalNeuralNetwork/Ship classifier results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B65C11-1A6C-4B76-AB39-B8C3108A5742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D40D1B7-29B4-44B8-BD0C-14AC752C9804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="500" windowWidth="8270" windowHeight="7360" xr2:uid="{CA773F2E-875F-4BE6-85DE-1B9C5511DEC3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA773F2E-875F-4BE6-85DE-1B9C5511DEC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Precision</t>
   </si>
@@ -139,16 +139,83 @@
   </si>
   <si>
     <t>Accuracy 97%</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>No Noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lr </t>
+  </si>
+  <si>
+    <t>Kernel Size</t>
+  </si>
+  <si>
+    <t>No-ship (noise)</t>
+  </si>
+  <si>
+    <t>Ship (noise)No-ship</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>BatchSize</t>
+  </si>
+  <si>
+    <t>Lr</t>
+  </si>
+  <si>
+    <t>No-ship(noise)</t>
+  </si>
+  <si>
+    <t>Ship (nose)</t>
+  </si>
+  <si>
+    <t>No-ship</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>no noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise </t>
+  </si>
+  <si>
+    <t>No noise</t>
+  </si>
+  <si>
+    <t>PRECISION</t>
+  </si>
+  <si>
+    <t>RECALL RATES</t>
+  </si>
+  <si>
+    <t>ACCURACY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,9 +247,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555C5929-953A-4E48-94CF-F9E607BEFC4C}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -527,9 +595,10 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L1" s="2"/>
       <c r="M1" t="s">
         <v>7</v>
       </c>
@@ -551,8 +620,11 @@
       <c r="S1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -595,8 +667,17 @@
       <c r="S2">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -633,8 +714,23 @@
       <c r="S3">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>0.98</v>
+      </c>
+      <c r="X3">
+        <v>0.8</v>
+      </c>
+      <c r="Y3">
+        <v>0.99</v>
+      </c>
+      <c r="Z3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -671,8 +767,40 @@
       <c r="S4">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4">
+        <v>0.99</v>
+      </c>
+      <c r="X4">
+        <v>0.96</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5">
+        <v>0.99</v>
+      </c>
+      <c r="X5">
+        <v>0.97</v>
+      </c>
+      <c r="Y5">
+        <v>0.98</v>
+      </c>
+      <c r="Z5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -715,8 +843,23 @@
       <c r="S6">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V6" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6">
+        <v>0.99</v>
+      </c>
+      <c r="X6">
+        <v>0.97</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>0.02</v>
       </c>
@@ -753,8 +896,23 @@
       <c r="S7">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7">
+        <v>0.98</v>
+      </c>
+      <c r="X7">
+        <v>0.99</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.03</v>
       </c>
@@ -791,8 +949,23 @@
       <c r="S8">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8">
+        <v>0.98</v>
+      </c>
+      <c r="X8">
+        <v>0.91</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.04</v>
       </c>
@@ -830,7 +1003,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.05</v>
       </c>
@@ -868,7 +1041,12 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="V11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -911,8 +1089,20 @@
       <c r="S12">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -949,8 +1139,40 @@
       <c r="S13">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V13" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>0.92</v>
+      </c>
+      <c r="X13">
+        <v>0.93</v>
+      </c>
+      <c r="Y13">
+        <v>0.96</v>
+      </c>
+      <c r="Z13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14">
+        <v>0.99</v>
+      </c>
+      <c r="X14">
+        <v>0.98</v>
+      </c>
+      <c r="Y14">
+        <v>0.94</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -993,8 +1215,23 @@
       <c r="S15">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <v>0.99</v>
+      </c>
+      <c r="X15">
+        <v>0.97</v>
+      </c>
+      <c r="Y15">
+        <v>0.95</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>0.5</v>
       </c>
@@ -1031,8 +1268,23 @@
       <c r="S16">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W16">
+        <v>0.99</v>
+      </c>
+      <c r="X16">
+        <v>0.97</v>
+      </c>
+      <c r="Y16">
+        <v>0.89</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>0.6</v>
       </c>
@@ -1069,8 +1321,23 @@
       <c r="S17">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V17" t="s">
+        <v>43</v>
+      </c>
+      <c r="W17">
+        <v>0.98</v>
+      </c>
+      <c r="X17">
+        <v>0.98</v>
+      </c>
+      <c r="Y17">
+        <v>0.96</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>0.7</v>
       </c>
@@ -1107,8 +1374,23 @@
       <c r="S18">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18">
+        <v>0.97</v>
+      </c>
+      <c r="X18">
+        <v>0.93</v>
+      </c>
+      <c r="Y18">
+        <v>0.94</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>0.8</v>
       </c>
@@ -1146,7 +1428,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1189,8 +1471,11 @@
       <c r="S21">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>64</v>
       </c>
@@ -1227,8 +1512,14 @@
       <c r="S22">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="W22" t="s">
+        <v>35</v>
+      </c>
+      <c r="X22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>128</v>
       </c>
@@ -1265,8 +1556,17 @@
       <c r="S23">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V23" t="s">
+        <v>10</v>
+      </c>
+      <c r="W23">
+        <v>0.93</v>
+      </c>
+      <c r="X23">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>256</v>
       </c>
@@ -1303,8 +1603,28 @@
       <c r="S24">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W24">
+        <v>0.98</v>
+      </c>
+      <c r="X24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="V25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25">
+        <v>0.98</v>
+      </c>
+      <c r="X25">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1329,8 +1649,17 @@
       <c r="H26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V26" t="s">
+        <v>17</v>
+      </c>
+      <c r="W26">
+        <v>0.98</v>
+      </c>
+      <c r="X26">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>64</v>
       </c>
@@ -1352,8 +1681,17 @@
       <c r="H27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V27" t="s">
+        <v>18</v>
+      </c>
+      <c r="W27">
+        <v>0.98</v>
+      </c>
+      <c r="X27">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>128</v>
       </c>
@@ -1372,8 +1710,17 @@
       <c r="G28">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="V28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W28">
+        <v>0.96</v>
+      </c>
+      <c r="X28">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="M29" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1743,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="N30">
         <v>64</v>
       </c>
@@ -1416,7 +1763,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="N31">
         <v>128</v>
       </c>
@@ -1436,25 +1783,61 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
+        <v>48</v>
+      </c>
+      <c r="P35">
+        <v>31</v>
+      </c>
+      <c r="Q35">
+        <v>32</v>
+      </c>
+      <c r="R35">
+        <v>34</v>
+      </c>
+      <c r="S35">
+        <v>39</v>
+      </c>
+      <c r="T35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>929</v>
       </c>
       <c r="D36">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36">
+        <v>32</v>
+      </c>
+      <c r="Q36">
+        <v>34</v>
+      </c>
+      <c r="R36">
+        <v>35</v>
+      </c>
+      <c r="S36">
+        <v>29</v>
+      </c>
+      <c r="T36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C37">
         <v>5</v>
       </c>
@@ -1465,7 +1848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>32</v>
       </c>
@@ -1473,7 +1856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>0</v>
       </c>
@@ -1483,8 +1866,14 @@
       <c r="E39">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="P39" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>1</v>
       </c>
@@ -1494,8 +1883,47 @@
       <c r="E40">
         <v>0.99</v>
       </c>
+      <c r="P40">
+        <v>31</v>
+      </c>
+      <c r="Q40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="P41">
+        <v>32</v>
+      </c>
+      <c r="Q41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="P42">
+        <v>34</v>
+      </c>
+      <c r="Q42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="P43">
+        <v>39</v>
+      </c>
+      <c r="Q43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.35">
+      <c r="P44">
+        <v>30</v>
+      </c>
+      <c r="Q44">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>